--- a/VBA_Template_2105_andOnwards/TemplateWithoutVBA.xlsx
+++ b/VBA_Template_2105_andOnwards/TemplateWithoutVBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/patrick_weber01_sap_com/Documents/SAP IBP Excel/Planning View Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I529952\Desktop\charts\New Chart files\2105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{03D5D75D-489B-459F-86C2-E37DA8972152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2616612E-7AFC-43FD-9CDA-1C654F5686E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E59F62FC-453E-4ED3-833F-4B7CED373CE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="374" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="374" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBPFormattingSheet" sheetId="10" state="hidden" r:id="rId1"/>
@@ -240,6 +240,7 @@
     <definedName name="SOP_Template_Name">" "</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -580,18 +581,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -695,6 +684,20 @@
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1192,7 +1195,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1260,14 +1263,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1275,10 +1278,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1315,18 +1318,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1337,36 +1340,36 @@
     <xf numFmtId="0" fontId="0" fillId="1" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1394,71 +1397,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1486,22 +1426,85 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1905,11 +1908,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>1485900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>1609725</xdr:colOff>
+          <xdr:colOff>1607820</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1976,7 +1979,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2800350</xdr:colOff>
+          <xdr:colOff>2804160</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2017,14 +2020,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2047,15 +2050,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>487680</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2619375</xdr:colOff>
+          <xdr:colOff>2621280</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>274320</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2104,14 +2107,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2134,15 +2137,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>274320</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2191,14 +2194,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2221,7 +2224,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2752725</xdr:colOff>
+          <xdr:colOff>2750820</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2268,14 +2271,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2300,13 +2303,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>4229100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>274320</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2355,14 +2358,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2385,15 +2388,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2771775</xdr:colOff>
+          <xdr:colOff>2773680</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>4200525</xdr:colOff>
+          <xdr:colOff>4198620</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>274320</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2442,14 +2445,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2472,15 +2475,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>2428875</xdr:colOff>
+          <xdr:colOff>2430780</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>333375</xdr:rowOff>
+          <xdr:rowOff>335280</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2529,14 +2532,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2559,15 +2562,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1133475</xdr:colOff>
+          <xdr:colOff>1135380</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2606,14 +2609,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2636,13 +2639,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2683,14 +2686,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2713,13 +2716,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>906780</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>2105025</xdr:colOff>
+          <xdr:colOff>2103120</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -2770,14 +2773,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2800,15 +2803,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>906780</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>2105025</xdr:colOff>
+          <xdr:colOff>2103120</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2857,14 +2860,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2887,9 +2890,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -2944,14 +2947,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2974,7 +2977,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2982,7 +2985,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3031,14 +3034,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3061,7 +3064,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3069,7 +3072,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3118,14 +3121,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3148,15 +3151,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>1133475</xdr:colOff>
+          <xdr:colOff>1135380</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3195,14 +3198,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3225,13 +3228,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3272,14 +3275,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3302,13 +3305,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>906780</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>2105025</xdr:colOff>
+          <xdr:colOff>2103120</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -3359,14 +3362,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3389,15 +3392,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>904875</xdr:colOff>
+          <xdr:colOff>906780</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>2105025</xdr:colOff>
+          <xdr:colOff>2103120</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:rowOff>251460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3446,14 +3449,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3476,7 +3479,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3533,14 +3536,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3563,7 +3566,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3571,7 +3574,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3620,14 +3623,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3650,7 +3653,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3658,7 +3661,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>220980</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3707,14 +3710,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3737,13 +3740,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
+          <xdr:colOff>601980</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -3851,14 +3854,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3881,15 +3884,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>487680</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2619375</xdr:colOff>
+          <xdr:colOff>2621280</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>274320</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3938,14 +3941,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3968,15 +3971,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>274320</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4025,14 +4028,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4055,7 +4058,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>86</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4112,14 +4115,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4142,7 +4145,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4199,14 +4202,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4229,7 +4232,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4286,14 +4289,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4316,7 +4319,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4373,14 +4376,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4403,7 +4406,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4460,14 +4463,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4490,9 +4493,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -4547,14 +4550,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4577,13 +4580,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>4286250</xdr:colOff>
+          <xdr:colOff>4290060</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -4617,14 +4620,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4646,7 +4649,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>86</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4654,7 +4657,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>86</xdr:row>
-          <xdr:rowOff>295275</xdr:rowOff>
+          <xdr:rowOff>297180</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4703,14 +4706,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4733,7 +4736,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4790,14 +4793,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4820,7 +4823,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4877,14 +4880,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4907,7 +4910,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -4964,14 +4967,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4994,7 +4997,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5051,14 +5054,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5081,9 +5084,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -5138,14 +5141,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5168,13 +5171,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>4286250</xdr:colOff>
+          <xdr:colOff>4290060</xdr:colOff>
           <xdr:row>84</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -5208,14 +5211,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5239,11 +5242,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>88</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>1800225</xdr:colOff>
+          <xdr:colOff>1798320</xdr:colOff>
           <xdr:row>88</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -5351,14 +5354,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="none" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5381,15 +5384,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>487680</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>2619375</xdr:colOff>
+          <xdr:colOff>2621280</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>274320</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5438,14 +5441,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5468,15 +5471,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
+          <xdr:colOff>213360</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:rowOff>274320</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5525,14 +5528,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5555,7 +5558,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>92</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5612,14 +5615,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5642,7 +5645,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>95</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5699,14 +5702,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5729,7 +5732,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>100</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5786,14 +5789,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5816,9 +5819,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>102</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
@@ -5873,14 +5876,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5909,9 +5912,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>1647825</xdr:colOff>
+          <xdr:colOff>1645920</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5970,7 +5973,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -5978,7 +5981,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6027,14 +6030,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6057,7 +6060,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>121920</xdr:colOff>
           <xdr:row>107</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -6065,7 +6068,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1028700</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6114,14 +6117,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6146,11 +6149,11 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>2438400</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>695325</xdr:colOff>
+          <xdr:colOff>693420</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -6184,14 +6187,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6215,11 +6218,11 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>695325</xdr:colOff>
+          <xdr:colOff>693420</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -6253,14 +6256,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6284,11 +6287,11 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>695325</xdr:colOff>
+          <xdr:colOff>693420</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -6322,14 +6325,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6351,13 +6354,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>695325</xdr:colOff>
+          <xdr:colOff>693420</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -6391,14 +6394,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6426,7 +6429,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6460,14 +6463,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6495,7 +6498,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6529,14 +6532,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6564,7 +6567,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6598,14 +6601,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6667,14 +6670,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6698,11 +6701,11 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6736,14 +6739,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6767,11 +6770,11 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6805,14 +6808,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6836,11 +6839,11 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -6874,14 +6877,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6905,7 +6908,7 @@
           <xdr:col>15</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
@@ -6943,14 +6946,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6974,13 +6977,13 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7012,14 +7015,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7043,13 +7046,13 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7081,14 +7084,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7112,13 +7115,13 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7150,14 +7153,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7181,13 +7184,13 @@
           <xdr:col>15</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7219,14 +7222,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7254,9 +7257,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7288,14 +7291,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7323,9 +7326,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7357,14 +7360,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7392,9 +7395,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7426,14 +7429,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7463,7 +7466,7 @@
           <xdr:col>16</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7495,14 +7498,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7530,9 +7533,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7564,14 +7567,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7599,9 +7602,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7633,14 +7636,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7668,9 +7671,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7702,14 +7705,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7739,7 +7742,7 @@
           <xdr:col>16</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7771,14 +7774,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7806,7 +7809,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7840,14 +7843,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7875,7 +7878,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7909,14 +7912,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7944,7 +7947,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -7978,14 +7981,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8047,14 +8050,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8078,11 +8081,11 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8116,14 +8119,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8147,11 +8150,11 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8185,14 +8188,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8216,11 +8219,11 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8254,14 +8257,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8285,7 +8288,7 @@
           <xdr:col>15</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
@@ -8323,14 +8326,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8358,9 +8361,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8392,14 +8395,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8427,9 +8430,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8461,14 +8464,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8496,9 +8499,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8530,14 +8533,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8567,7 +8570,7 @@
           <xdr:col>16</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8599,14 +8602,14 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8852,13 +8855,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>83820</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9234,42 +9237,42 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="82.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="90.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="82.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16" width="10.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="90.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
@@ -9284,7 +9287,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -9300,7 +9303,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -9314,45 +9317,45 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="70"/>
       <c r="Q5" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="92"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
       <c r="Q6" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="15"/>
@@ -9365,13 +9368,13 @@
       <c r="J7" s="41"/>
       <c r="K7" s="15"/>
       <c r="L7" s="16"/>
-      <c r="Q7" s="85" t="s">
+      <c r="Q7" s="77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="68"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -9382,35 +9385,35 @@
       <c r="J8" s="40"/>
       <c r="K8" s="2"/>
       <c r="L8" s="10"/>
-      <c r="Q8" s="85"/>
+      <c r="Q8" s="77"/>
     </row>
-    <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
       <c r="L9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="85"/>
+      <c r="Q9" s="77"/>
     </row>
-    <row r="10" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="2"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43"/>
@@ -9420,12 +9423,12 @@
       <c r="J10" s="43"/>
       <c r="K10" s="42"/>
       <c r="L10" s="10"/>
-      <c r="Q10" s="85"/>
+      <c r="Q10" s="77"/>
     </row>
-    <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="44" t="s">
         <v>5</v>
       </c>
@@ -9445,12 +9448,12 @@
       <c r="L11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="85"/>
+      <c r="Q11" s="77"/>
     </row>
-    <row r="12" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="13"/>
       <c r="E12" s="18"/>
       <c r="F12" s="47"/>
@@ -9460,11 +9463,11 @@
       <c r="J12" s="47"/>
       <c r="K12" s="18"/>
       <c r="L12" s="14"/>
-      <c r="Q12" s="85"/>
+      <c r="Q12" s="77"/>
     </row>
-    <row r="13" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="75" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
@@ -9477,11 +9480,11 @@
       <c r="J13" s="40"/>
       <c r="K13" s="2"/>
       <c r="L13" s="10"/>
-      <c r="Q13" s="85"/>
+      <c r="Q13" s="77"/>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="68"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -9492,35 +9495,35 @@
       <c r="J14" s="40"/>
       <c r="K14" s="2"/>
       <c r="L14" s="10"/>
-      <c r="Q14" s="85"/>
+      <c r="Q14" s="77"/>
     </row>
-    <row r="15" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
       <c r="L15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="85"/>
+      <c r="Q15" s="77"/>
     </row>
-    <row r="16" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="73"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="2"/>
       <c r="E16" s="42"/>
       <c r="F16" s="43"/>
@@ -9530,12 +9533,12 @@
       <c r="J16" s="43"/>
       <c r="K16" s="42"/>
       <c r="L16" s="10"/>
-      <c r="Q16" s="85"/>
+      <c r="Q16" s="77"/>
     </row>
-    <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="44" t="s">
         <v>5</v>
       </c>
@@ -9555,12 +9558,12 @@
       <c r="L17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q17" s="85"/>
+      <c r="Q17" s="77"/>
     </row>
-    <row r="18" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="13"/>
       <c r="E18" s="18"/>
       <c r="F18" s="47"/>
@@ -9570,9 +9573,9 @@
       <c r="J18" s="47"/>
       <c r="K18" s="18"/>
       <c r="L18" s="14"/>
-      <c r="Q18" s="85"/>
+      <c r="Q18" s="77"/>
     </row>
-    <row r="19" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -9585,9 +9588,9 @@
       <c r="J19" s="40"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="Q19" s="85"/>
+      <c r="Q19" s="77"/>
     </row>
-    <row r="20" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -9602,7 +9605,7 @@
       <c r="L20" s="2"/>
       <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -9619,43 +9622,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
-      <c r="Q22" s="85" t="s">
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="86"/>
+      <c r="Q22" s="77" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="82"/>
-      <c r="Q23" s="85"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
+      <c r="Q23" s="77"/>
     </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2"/>
@@ -9668,35 +9671,35 @@
       <c r="J24" s="40"/>
       <c r="K24" s="2"/>
       <c r="L24" s="10"/>
-      <c r="Q24" s="85"/>
+      <c r="Q24" s="77"/>
     </row>
-    <row r="25" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="68"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="70" t="s">
+      <c r="I25" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="71"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
       <c r="L25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" s="85"/>
+      <c r="Q25" s="77"/>
     </row>
-    <row r="26" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="74"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="2"/>
       <c r="E26" s="42"/>
       <c r="F26" s="43"/>
@@ -9706,12 +9709,12 @@
       <c r="J26" s="43"/>
       <c r="K26" s="42"/>
       <c r="L26" s="10"/>
-      <c r="Q26" s="85"/>
+      <c r="Q26" s="77"/>
     </row>
-    <row r="27" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="44" t="s">
         <v>37</v>
       </c>
@@ -9731,12 +9734,12 @@
       <c r="L27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q27" s="85"/>
+      <c r="Q27" s="77"/>
     </row>
-    <row r="28" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="37"/>
       <c r="E28" s="7"/>
       <c r="F28" s="50"/>
@@ -9746,12 +9749,12 @@
       <c r="J28" s="50"/>
       <c r="K28" s="7"/>
       <c r="L28" s="38"/>
-      <c r="Q28" s="85"/>
+      <c r="Q28" s="77"/>
     </row>
-    <row r="29" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="74"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="2"/>
       <c r="E29" s="42"/>
       <c r="F29" s="43"/>
@@ -9761,12 +9764,12 @@
       <c r="J29" s="43"/>
       <c r="K29" s="42"/>
       <c r="L29" s="10"/>
-      <c r="Q29" s="85"/>
+      <c r="Q29" s="77"/>
     </row>
-    <row r="30" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="44" t="s">
         <v>38</v>
       </c>
@@ -9788,10 +9791,10 @@
       </c>
       <c r="Q30" s="23"/>
     </row>
-    <row r="31" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="37"/>
       <c r="E31" s="7"/>
       <c r="F31" s="50"/>
@@ -9802,10 +9805,10 @@
       <c r="K31" s="7"/>
       <c r="L31" s="38"/>
     </row>
-    <row r="32" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="2"/>
       <c r="E32" s="42"/>
       <c r="F32" s="43"/>
@@ -9816,10 +9819,10 @@
       <c r="K32" s="42"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="74"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="44" t="s">
         <v>10</v>
       </c>
@@ -9840,10 +9843,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="37"/>
       <c r="E34" s="7"/>
       <c r="F34" s="50"/>
@@ -9854,10 +9857,10 @@
       <c r="K34" s="7"/>
       <c r="L34" s="38"/>
     </row>
-    <row r="35" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="74"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="2"/>
       <c r="E35" s="42"/>
       <c r="F35" s="43"/>
@@ -9868,10 +9871,10 @@
       <c r="K35" s="42"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="74"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="44" t="s">
         <v>11</v>
       </c>
@@ -9892,10 +9895,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="37"/>
       <c r="E37" s="7"/>
       <c r="F37" s="50"/>
@@ -9906,10 +9909,10 @@
       <c r="K37" s="7"/>
       <c r="L37" s="38"/>
     </row>
-    <row r="38" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="74"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="2"/>
       <c r="E38" s="42"/>
       <c r="F38" s="43"/>
@@ -9920,10 +9923,10 @@
       <c r="K38" s="42"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="74"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="44" t="s">
         <v>12</v>
       </c>
@@ -9936,9 +9939,9 @@
       <c r="K39" s="42"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="68"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="35"/>
       <c r="D40" s="44"/>
       <c r="E40" s="42"/>
@@ -9950,9 +9953,9 @@
       <c r="K40" s="42"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="68"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="35"/>
       <c r="D41" s="53" t="s">
         <v>24</v>
@@ -9974,9 +9977,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="68"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="35"/>
       <c r="D42" s="31"/>
       <c r="E42" s="7"/>
@@ -9988,9 +9991,9 @@
       <c r="K42" s="7"/>
       <c r="L42" s="38"/>
     </row>
-    <row r="43" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="68"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="35"/>
       <c r="D43" s="44"/>
       <c r="E43" s="42"/>
@@ -10002,9 +10005,9 @@
       <c r="K43" s="42"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="68"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="35"/>
       <c r="D44" s="56" t="s">
         <v>33</v>
@@ -10026,9 +10029,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="68"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="35"/>
       <c r="D45" s="31"/>
       <c r="E45" s="7"/>
@@ -10040,9 +10043,9 @@
       <c r="K45" s="7"/>
       <c r="L45" s="38"/>
     </row>
-    <row r="46" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="68"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="35"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -10054,9 +10057,9 @@
       <c r="K46" s="2"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="69"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="39"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
@@ -10068,9 +10071,9 @@
       <c r="K47" s="13"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="15"/>
@@ -10084,32 +10087,32 @@
       <c r="K48" s="15"/>
       <c r="L48" s="16"/>
     </row>
-    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="68"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I49" s="70" t="s">
+      <c r="I49" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J49" s="71"/>
-      <c r="K49" s="72"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="80"/>
       <c r="L49" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="74"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="2"/>
       <c r="E50" s="42"/>
       <c r="F50" s="43"/>
@@ -10120,10 +10123,10 @@
       <c r="K50" s="42"/>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="74"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="82"/>
       <c r="D51" s="44" t="s">
         <v>37</v>
       </c>
@@ -10144,10 +10147,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="75"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="37"/>
       <c r="E52" s="7"/>
       <c r="F52" s="50"/>
@@ -10158,10 +10161,10 @@
       <c r="K52" s="7"/>
       <c r="L52" s="38"/>
     </row>
-    <row r="53" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="74"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="82"/>
       <c r="D53" s="2"/>
       <c r="E53" s="42"/>
       <c r="F53" s="43"/>
@@ -10172,10 +10175,10 @@
       <c r="K53" s="42"/>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="74"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="82"/>
       <c r="D54" s="44" t="s">
         <v>38</v>
       </c>
@@ -10196,10 +10199,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="75"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="37"/>
       <c r="E55" s="7"/>
       <c r="F55" s="50"/>
@@ -10210,10 +10213,10 @@
       <c r="K55" s="7"/>
       <c r="L55" s="38"/>
     </row>
-    <row r="56" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="74"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="2"/>
       <c r="E56" s="42"/>
       <c r="F56" s="43"/>
@@ -10224,10 +10227,10 @@
       <c r="K56" s="42"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="74"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="44" t="s">
         <v>10</v>
       </c>
@@ -10248,10 +10251,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="37"/>
       <c r="E58" s="7"/>
       <c r="F58" s="50"/>
@@ -10262,10 +10265,10 @@
       <c r="K58" s="7"/>
       <c r="L58" s="38"/>
     </row>
-    <row r="59" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="74"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="2"/>
       <c r="E59" s="42"/>
       <c r="F59" s="43"/>
@@ -10276,10 +10279,10 @@
       <c r="K59" s="42"/>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="74"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="44" t="s">
         <v>11</v>
       </c>
@@ -10300,10 +10303,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="37"/>
       <c r="E61" s="7"/>
       <c r="F61" s="50"/>
@@ -10314,10 +10317,10 @@
       <c r="K61" s="7"/>
       <c r="L61" s="38"/>
     </row>
-    <row r="62" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="74"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="82"/>
       <c r="D62" s="2"/>
       <c r="E62" s="42"/>
       <c r="F62" s="43"/>
@@ -10328,10 +10331,10 @@
       <c r="K62" s="42"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="74"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="44" t="s">
         <v>12</v>
       </c>
@@ -10344,9 +10347,9 @@
       <c r="K63" s="42"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="68"/>
+      <c r="B64" s="75"/>
       <c r="C64" s="35"/>
       <c r="D64" s="44"/>
       <c r="E64" s="42"/>
@@ -10358,9 +10361,9 @@
       <c r="K64" s="42"/>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="68"/>
+      <c r="B65" s="75"/>
       <c r="C65" s="35"/>
       <c r="D65" s="53" t="s">
         <v>25</v>
@@ -10382,9 +10385,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="68"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="35"/>
       <c r="D66" s="31"/>
       <c r="E66" s="7"/>
@@ -10396,9 +10399,9 @@
       <c r="K66" s="7"/>
       <c r="L66" s="38"/>
     </row>
-    <row r="67" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="68"/>
+      <c r="B67" s="75"/>
       <c r="C67" s="35"/>
       <c r="D67" s="44"/>
       <c r="E67" s="42"/>
@@ -10410,9 +10413,9 @@
       <c r="K67" s="42"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="68"/>
+      <c r="B68" s="75"/>
       <c r="C68" s="35"/>
       <c r="D68" s="53" t="s">
         <v>29</v>
@@ -10434,9 +10437,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="68"/>
+      <c r="B69" s="75"/>
       <c r="C69" s="35"/>
       <c r="D69" s="31"/>
       <c r="E69" s="7"/>
@@ -10448,9 +10451,9 @@
       <c r="K69" s="7"/>
       <c r="L69" s="38"/>
     </row>
-    <row r="70" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="68"/>
+      <c r="B70" s="75"/>
       <c r="C70" s="35"/>
       <c r="D70" s="44"/>
       <c r="E70" s="42"/>
@@ -10462,9 +10465,9 @@
       <c r="K70" s="42"/>
       <c r="L70" s="10"/>
     </row>
-    <row r="71" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="68"/>
+      <c r="B71" s="75"/>
       <c r="C71" s="35"/>
       <c r="D71" s="53" t="s">
         <v>27</v>
@@ -10486,9 +10489,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="68"/>
+      <c r="B72" s="75"/>
       <c r="C72" s="35"/>
       <c r="D72" s="31"/>
       <c r="E72" s="7"/>
@@ -10500,9 +10503,9 @@
       <c r="K72" s="7"/>
       <c r="L72" s="38"/>
     </row>
-    <row r="73" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="68"/>
+      <c r="B73" s="75"/>
       <c r="C73" s="35"/>
       <c r="D73" s="44"/>
       <c r="E73" s="42"/>
@@ -10514,9 +10517,9 @@
       <c r="K73" s="42"/>
       <c r="L73" s="10"/>
     </row>
-    <row r="74" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="68"/>
+      <c r="B74" s="75"/>
       <c r="C74" s="35"/>
       <c r="D74" s="53" t="s">
         <v>30</v>
@@ -10538,9 +10541,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="68"/>
+      <c r="B75" s="75"/>
       <c r="C75" s="35"/>
       <c r="D75" s="31"/>
       <c r="E75" s="7"/>
@@ -10552,9 +10555,9 @@
       <c r="K75" s="7"/>
       <c r="L75" s="38"/>
     </row>
-    <row r="76" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="68"/>
+      <c r="B76" s="75"/>
       <c r="C76" s="35"/>
       <c r="D76" s="44"/>
       <c r="E76" s="42"/>
@@ -10566,9 +10569,9 @@
       <c r="K76" s="42"/>
       <c r="L76" s="10"/>
     </row>
-    <row r="77" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="68"/>
+      <c r="B77" s="75"/>
       <c r="C77" s="35"/>
       <c r="D77" s="53" t="s">
         <v>28</v>
@@ -10590,9 +10593,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="68"/>
+      <c r="B78" s="75"/>
       <c r="C78" s="35"/>
       <c r="D78" s="31"/>
       <c r="E78" s="7"/>
@@ -10604,9 +10607,9 @@
       <c r="K78" s="7"/>
       <c r="L78" s="38"/>
     </row>
-    <row r="79" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="68"/>
+      <c r="B79" s="75"/>
       <c r="C79" s="35"/>
       <c r="D79" s="44"/>
       <c r="E79" s="42"/>
@@ -10618,9 +10621,9 @@
       <c r="K79" s="42"/>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="68"/>
+      <c r="B80" s="75"/>
       <c r="C80" s="35"/>
       <c r="D80" s="53" t="s">
         <v>31</v>
@@ -10642,9 +10645,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="68"/>
+      <c r="B81" s="75"/>
       <c r="C81" s="35"/>
       <c r="D81" s="31"/>
       <c r="E81" s="7"/>
@@ -10656,9 +10659,9 @@
       <c r="K81" s="7"/>
       <c r="L81" s="38"/>
     </row>
-    <row r="82" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="68"/>
+      <c r="B82" s="75"/>
       <c r="C82" s="35"/>
       <c r="D82" s="44"/>
       <c r="E82" s="42"/>
@@ -10670,9 +10673,9 @@
       <c r="K82" s="42"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="68"/>
+      <c r="B83" s="75"/>
       <c r="C83" s="35"/>
       <c r="D83" s="53" t="s">
         <v>32</v>
@@ -10694,9 +10697,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="68"/>
+      <c r="B84" s="75"/>
       <c r="C84" s="35"/>
       <c r="D84" s="31"/>
       <c r="E84" s="7"/>
@@ -10708,9 +10711,9 @@
       <c r="K84" s="7"/>
       <c r="L84" s="38"/>
     </row>
-    <row r="85" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="68"/>
+      <c r="B85" s="75"/>
       <c r="C85" s="35"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -10722,9 +10725,9 @@
       <c r="K85" s="2"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="69"/>
+      <c r="B86" s="76"/>
       <c r="C86" s="39"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
@@ -10736,7 +10739,7 @@
       <c r="K86" s="13"/>
       <c r="L86" s="14"/>
     </row>
-    <row r="87" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -10750,7 +10753,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -10764,39 +10767,39 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="77" t="s">
+      <c r="B89" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="78"/>
-      <c r="G89" s="78"/>
-      <c r="H89" s="78"/>
-      <c r="I89" s="78"/>
-      <c r="J89" s="78"/>
-      <c r="K89" s="78"/>
-      <c r="L89" s="79"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="86"/>
     </row>
-    <row r="90" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="81"/>
-      <c r="H90" s="81"/>
-      <c r="I90" s="81"/>
-      <c r="J90" s="81"/>
-      <c r="K90" s="81"/>
-      <c r="L90" s="82"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="88"/>
+      <c r="H90" s="88"/>
+      <c r="I90" s="88"/>
+      <c r="J90" s="88"/>
+      <c r="K90" s="88"/>
+      <c r="L90" s="89"/>
     </row>
-    <row r="91" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="67" t="s">
+      <c r="B91" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="2"/>
@@ -10810,32 +10813,32 @@
       <c r="K91" s="2"/>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="68"/>
+      <c r="B92" s="75"/>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="70" t="s">
+      <c r="E92" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F92" s="71"/>
-      <c r="G92" s="72"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="80"/>
       <c r="H92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I92" s="70" t="s">
+      <c r="I92" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J92" s="71"/>
-      <c r="K92" s="72"/>
+      <c r="J92" s="79"/>
+      <c r="K92" s="80"/>
       <c r="L92" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="73"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="81"/>
       <c r="D93" s="2"/>
       <c r="E93" s="42"/>
       <c r="F93" s="43"/>
@@ -10846,10 +10849,10 @@
       <c r="K93" s="42"/>
       <c r="L93" s="10"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="74"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="82"/>
       <c r="D94" s="44" t="s">
         <v>14</v>
       </c>
@@ -10870,10 +10873,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="75"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="91"/>
       <c r="D95" s="37"/>
       <c r="E95" s="7"/>
       <c r="F95" s="50"/>
@@ -10884,10 +10887,10 @@
       <c r="K95" s="7"/>
       <c r="L95" s="38"/>
     </row>
-    <row r="96" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="74"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="82"/>
       <c r="D96" s="2"/>
       <c r="E96" s="42"/>
       <c r="F96" s="43"/>
@@ -10898,10 +10901,10 @@
       <c r="K96" s="42"/>
       <c r="L96" s="10"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="74"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="82"/>
       <c r="D97" s="44" t="s">
         <v>15</v>
       </c>
@@ -10922,10 +10925,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="83"/>
-      <c r="C98" s="75"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="37"/>
       <c r="E98" s="7"/>
       <c r="F98" s="50"/>
@@ -10936,9 +10939,9 @@
       <c r="K98" s="7"/>
       <c r="L98" s="38"/>
     </row>
-    <row r="99" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="67" t="s">
+      <c r="B99" s="90" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="2"/>
@@ -10952,32 +10955,32 @@
       <c r="K99" s="2"/>
       <c r="L99" s="10"/>
     </row>
-    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="68"/>
+      <c r="B100" s="75"/>
       <c r="C100" s="5"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="70" t="s">
+      <c r="E100" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F100" s="71"/>
-      <c r="G100" s="72"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="80"/>
       <c r="H100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I100" s="70" t="s">
+      <c r="I100" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="71"/>
-      <c r="K100" s="72"/>
+      <c r="J100" s="79"/>
+      <c r="K100" s="80"/>
       <c r="L100" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="73"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="81"/>
       <c r="D101" s="2"/>
       <c r="E101" s="42"/>
       <c r="F101" s="43"/>
@@ -10988,10 +10991,10 @@
       <c r="K101" s="42"/>
       <c r="L101" s="10"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="74"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="82"/>
       <c r="D102" s="44" t="s">
         <v>14</v>
       </c>
@@ -11012,10 +11015,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="75"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="91"/>
       <c r="D103" s="37"/>
       <c r="E103" s="7"/>
       <c r="F103" s="50"/>
@@ -11026,10 +11029,10 @@
       <c r="K103" s="7"/>
       <c r="L103" s="38"/>
     </row>
-    <row r="104" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="74"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="82"/>
       <c r="D104" s="2"/>
       <c r="E104" s="42"/>
       <c r="F104" s="43"/>
@@ -11040,10 +11043,10 @@
       <c r="K104" s="42"/>
       <c r="L104" s="10"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="74"/>
+      <c r="B105" s="75"/>
+      <c r="C105" s="82"/>
       <c r="D105" s="44" t="s">
         <v>15</v>
       </c>
@@ -11064,10 +11067,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="76"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="83"/>
       <c r="D106" s="13"/>
       <c r="E106" s="18"/>
       <c r="F106" s="47"/>
@@ -11078,7 +11081,7 @@
       <c r="K106" s="18"/>
       <c r="L106" s="14"/>
     </row>
-    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -11095,6 +11098,37 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="TO2lQalqwTqQvlOfykg8lV9LWmzpLYK446R9TObc+NCpdE/W2grNurPgSa+K6QZ9e8kAS6LJXOVp4LKyU3XDCw==" saltValue="zBlCjnlY1EIXa10S3tdBUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="43">
+    <mergeCell ref="B99:B106"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="B48:B86"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B89:L89"/>
+    <mergeCell ref="B90:L90"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="Q22:Q29"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B24:B47"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="B6:L6"/>
@@ -11107,125 +11141,20 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="Q22:Q29"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B24:B47"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B48:B86"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B89:L89"/>
-    <mergeCell ref="B90:L90"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="B99:B106"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="I100:K100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="200" r:id="rId1"/>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId5" name="cbApplyLevelFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1485900</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1609725</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>342900</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="12289" r:id="rId5" name="cbApplyLevelFormatting"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12311" r:id="rId7" name="cbApplyMemberFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>342900</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="12311" r:id="rId7" name="cbApplyMemberFormatting"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12329" r:id="rId9" name="cbApplyOddEvenFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1676400</xdr:colOff>
-                <xdr:row>88</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1800225</xdr:colOff>
-                <xdr:row>88</xdr:row>
-                <xdr:rowOff>342900</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="12329" r:id="rId9" name="cbApplyOddEvenFormatting"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12337" r:id="rId11" name="cbApplyPageHeaderFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId12">
+        <control shapeId="12337" r:id="rId6" name="cbApplyPageHeaderFormatting">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -11235,21 +11164,96 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>1647825</xdr:colOff>
+                <xdr:colOff>1645920</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>91440</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12337" r:id="rId11" name="cbApplyPageHeaderFormatting"/>
+        <control shapeId="12337" r:id="rId6" name="cbApplyPageHeaderFormatting"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12290" r:id="rId13" name="Group Box 2">
+        <control shapeId="12329" r:id="rId8" name="cbApplyOddEvenFormatting">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1676400</xdr:colOff>
+                <xdr:row>88</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1798320</xdr:colOff>
+                <xdr:row>88</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12329" r:id="rId8" name="cbApplyOddEvenFormatting"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12311" r:id="rId10" name="cbApplyMemberFormatting">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>480060</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>601980</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12311" r:id="rId10" name="cbApplyMemberFormatting"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12289" r:id="rId12" name="cbApplyLevelFormatting">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1485900</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1607820</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12289" r:id="rId12" name="cbApplyLevelFormatting"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12290" r:id="rId14" name="Group Box 2">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -11260,7 +11264,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>2800350</xdr:colOff>
+                <xdr:colOff>2804160</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -11271,20 +11275,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId14" name="obLevelRowFirst">
+        <control shapeId="12291" r:id="rId15" name="obLevelRowFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>487680</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>2619375</xdr:colOff>
+                <xdr:colOff>2621280</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>274320</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11293,20 +11297,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12292" r:id="rId15" name="obLevelColumnFirst">
+        <control shapeId="12292" r:id="rId16" name="obLevelColumnFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>213360</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>274320</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11315,12 +11319,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12293" r:id="rId16" name="Group Box 5">
+        <control shapeId="12293" r:id="rId17" name="Group Box 5">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>2752725</xdr:colOff>
+                <xdr:colOff>2750820</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11337,20 +11341,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12294" r:id="rId17" name="obRelativeLevelHierarchy">
+        <control shapeId="12294" r:id="rId18" name="obRelativeLevelHierarchy">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>4229100</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>274320</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11359,20 +11363,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12295" r:id="rId18" name="obDatabaseLevelHierarchy">
+        <control shapeId="12295" r:id="rId19" name="obDatabaseLevelHierarchy">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>2771775</xdr:colOff>
+                <xdr:colOff>2773680</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>4200525</xdr:colOff>
+                <xdr:colOff>4198620</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>274320</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11381,20 +11385,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12296" r:id="rId19" name="cbApplyLevelFromTopToBottom">
+        <control shapeId="12296" r:id="rId20" name="cbApplyLevelFromTopToBottom">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>22860</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>2428875</xdr:colOff>
+                <xdr:colOff>2430780</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>333375</xdr:rowOff>
+                <xdr:rowOff>335280</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11403,20 +11407,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12297" r:id="rId20" name="LVL1tbFormattingByLevel">
+        <control shapeId="12297" r:id="rId21" name="LVL1tbFormattingByLevel">
           <controlPr defaultSize="0" autoFill="0" autoPict="0">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>22860</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>137160</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1133475</xdr:colOff>
+                <xdr:colOff>1135380</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>121920</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11425,18 +11429,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12298" r:id="rId21" name="Group Box 10">
+        <control shapeId="12298" r:id="rId22" name="Group Box 10">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>213360</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>7620</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -11447,18 +11451,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12299" r:id="rId22" name="obLevelOuterFirst">
+        <control shapeId="12299" r:id="rId23" name="obLevelOuterFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
+                <xdr:colOff>906780</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>2105025</xdr:colOff>
+                <xdr:colOff>2103120</xdr:colOff>
                 <xdr:row>13</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -11469,20 +11473,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12300" r:id="rId23" name="obLevelInnerFirst">
+        <control shapeId="12300" r:id="rId24" name="obLevelInnerFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
+                <xdr:colOff>906780</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>2105025</xdr:colOff>
+                <xdr:colOff>2103120</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
+                <xdr:rowOff>236220</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11491,14 +11495,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12301" r:id="rId24" name="cbUseDefaultLevelFirst">
+        <control shapeId="12301" r:id="rId25" name="cbUseDefaultLevelFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
+                <xdr:rowOff>198120</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
@@ -11513,12 +11517,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12302" r:id="rId25" name="cbUseLeafLevelFirst">
+        <control shapeId="12302" r:id="rId26" name="cbUseLeafLevelFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11526,7 +11530,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11535,12 +11539,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12303" r:id="rId26" name="cbUseSpecificLevelFirst">
+        <control shapeId="12303" r:id="rId27" name="cbUseSpecificLevelFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11548,7 +11552,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>106680</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11557,20 +11561,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12304" r:id="rId27" name="LVL2tbFormattingByLevel">
+        <control shapeId="12304" r:id="rId28" name="LVL2tbFormattingByLevel">
           <controlPr defaultSize="0" autoFill="0" autoPict="0">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>22860</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>144780</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>1133475</xdr:colOff>
+                <xdr:colOff>1135380</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>137160</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11579,18 +11583,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12305" r:id="rId28" name="Group Box 17">
+        <control shapeId="12305" r:id="rId29" name="Group Box 17">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>213360</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>7620</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -11601,18 +11605,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12306" r:id="rId29" name="obLevelOuterSecond">
+        <control shapeId="12306" r:id="rId30" name="obLevelOuterSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
+                <xdr:colOff>906780</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>2105025</xdr:colOff>
+                <xdr:colOff>2103120</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -11623,20 +11627,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12307" r:id="rId30" name="obLevelInnerSecond">
+        <control shapeId="12307" r:id="rId31" name="obLevelInnerSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>904875</xdr:colOff>
+                <xdr:colOff>906780</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>2105025</xdr:colOff>
+                <xdr:colOff>2103120</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
+                <xdr:rowOff>251460</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11645,12 +11649,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12308" r:id="rId31" name="cbUseDefaultLevelSecond">
+        <control shapeId="12308" r:id="rId32" name="cbUseDefaultLevelSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11667,12 +11671,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12309" r:id="rId32" name="cbUseLeafLevelSecond">
+        <control shapeId="12309" r:id="rId33" name="cbUseLeafLevelSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11680,7 +11684,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11689,12 +11693,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12310" r:id="rId33" name="cbUseSpecificLevelSecond">
+        <control shapeId="12310" r:id="rId34" name="cbUseSpecificLevelSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11702,7 +11706,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>219075</xdr:rowOff>
+                <xdr:rowOff>220980</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11711,7 +11715,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12312" r:id="rId34" name="Group Box 24">
+        <control shapeId="12312" r:id="rId35" name="Group Box 24">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -11733,20 +11737,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12313" r:id="rId35" name="obMemberRowFirst">
+        <control shapeId="12313" r:id="rId36" name="obMemberRowFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>487680</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>2619375</xdr:colOff>
+                <xdr:colOff>2621280</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>274320</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11755,20 +11759,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12314" r:id="rId36" name="obMemberColumnFirst">
+        <control shapeId="12314" r:id="rId37" name="obMemberColumnFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>213360</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>274320</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11777,12 +11781,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12315" r:id="rId37" name="cbApplyCustomMemberDefaultFirst">
+        <control shapeId="12315" r:id="rId38" name="cbApplyCustomMemberDefaultFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11799,12 +11803,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12316" r:id="rId38" name="cbApplyCalculatedMemberFirst">
+        <control shapeId="12316" r:id="rId39" name="cbApplyCalculatedMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11821,12 +11825,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12317" r:id="rId39" name="cbApplyImputableMemberFirst">
+        <control shapeId="12317" r:id="rId40" name="cbApplyImputableMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>28</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11843,12 +11847,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12318" r:id="rId40" name="cbApplyLocalMemberFirst">
+        <control shapeId="12318" r:id="rId41" name="cbApplyLocalMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11865,12 +11869,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12319" r:id="rId41" name="cbApplyChangedMemberFirst">
+        <control shapeId="12319" r:id="rId42" name="cbApplyChangedMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11887,14 +11891,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12320" r:id="rId42" name="cbApplySpecificMemberFirst">
+        <control shapeId="12320" r:id="rId43" name="cbApplySpecificMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>37</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
@@ -11909,18 +11913,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12321" r:id="rId43" name="AddMemberFirst">
+        <control shapeId="12321" r:id="rId44" name="AddMemberFirst">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:colOff>60960</xdr:colOff>
                 <xdr:row>45</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>4286250</xdr:colOff>
+                <xdr:colOff>4290060</xdr:colOff>
                 <xdr:row>45</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
@@ -11931,12 +11935,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12322" r:id="rId44" name="cbApplyCustomMemberDefaultSecond">
+        <control shapeId="12322" r:id="rId45" name="cbApplyCustomMemberDefaultSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>86</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11944,7 +11948,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>86</xdr:row>
-                <xdr:rowOff>295275</xdr:rowOff>
+                <xdr:rowOff>297180</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11953,12 +11957,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12323" r:id="rId45" name="cbApplyCalculatedMemberSecond">
+        <control shapeId="12323" r:id="rId46" name="cbApplyCalculatedMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11975,12 +11979,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12324" r:id="rId46" name="cbApplyImputableMemberSecond">
+        <control shapeId="12324" r:id="rId47" name="cbApplyImputableMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>52</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -11997,12 +12001,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12325" r:id="rId47" name="cbApplyLocalMemberSecond">
+        <control shapeId="12325" r:id="rId48" name="cbApplyLocalMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>55</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -12019,12 +12023,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12326" r:id="rId48" name="cbApplyChangedMemberSecond">
+        <control shapeId="12326" r:id="rId49" name="cbApplyChangedMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -12041,14 +12045,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12327" r:id="rId49" name="cbApplySpecificMemberSecond">
+        <control shapeId="12327" r:id="rId50" name="cbApplySpecificMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>61</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
@@ -12063,18 +12067,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12328" r:id="rId50" name="AddMemberSecond">
+        <control shapeId="12328" r:id="rId51" name="AddMemberSecond">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:colOff>60960</xdr:colOff>
                 <xdr:row>84</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>22860</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>4286250</xdr:colOff>
+                <xdr:colOff>4290060</xdr:colOff>
                 <xdr:row>84</xdr:row>
                 <xdr:rowOff>266700</xdr:rowOff>
               </to>
@@ -12085,7 +12089,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12330" r:id="rId51" name="Group Box 42">
+        <control shapeId="12330" r:id="rId52" name="Group Box 42">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -12107,20 +12111,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12331" r:id="rId52" name="obOddEvenRowFirst">
+        <control shapeId="12331" r:id="rId53" name="obOddEvenRowFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>487680</xdr:colOff>
                 <xdr:row>89</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>68580</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>2619375</xdr:colOff>
+                <xdr:colOff>2621280</xdr:colOff>
                 <xdr:row>89</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>274320</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12129,20 +12133,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12332" r:id="rId53" name="obOddEvenColumnFirst">
+        <control shapeId="12332" r:id="rId54" name="obOddEvenColumnFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
+                <xdr:colOff>213360</xdr:colOff>
                 <xdr:row>89</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>68580</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>89</xdr:row>
-                <xdr:rowOff>276225</xdr:rowOff>
+                <xdr:rowOff>274320</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12151,12 +12155,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12333" r:id="rId54" name="cbUseOddFirst">
+        <control shapeId="12333" r:id="rId55" name="cbUseOddFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>92</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -12173,12 +12177,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12334" r:id="rId55" name="cbUseEvenFirst">
+        <control shapeId="12334" r:id="rId56" name="cbUseEvenFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>95</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -12195,12 +12199,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12335" r:id="rId56" name="cbUseOddSecond">
+        <control shapeId="12335" r:id="rId57" name="cbUseOddSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>100</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -12217,14 +12221,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12336" r:id="rId57" name="cbUseEvenSecond">
+        <control shapeId="12336" r:id="rId58" name="cbUseEvenSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>102</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
@@ -12239,12 +12243,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12338" r:id="rId58" name="cbUseDefaultPageHeaderFormat">
+        <control shapeId="12338" r:id="rId59" name="cbUseDefaultPageHeaderFormat">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -12252,7 +12256,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>121920</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12261,12 +12265,12 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12339" r:id="rId59" name="cbUseDimensionFormatting">
+        <control shapeId="12339" r:id="rId60" name="cbUseDimensionFormatting">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>121920</xdr:colOff>
                 <xdr:row>107</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -12274,7 +12278,7 @@
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>108</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12283,18 +12287,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12340" r:id="rId60" name="AddedMember2_1">
+        <control shapeId="12340" r:id="rId61" name="AddedMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>2438400</xdr:colOff>
                 <xdr:row>63</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:colOff>693420</xdr:colOff>
                 <xdr:row>64</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12305,18 +12309,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12341" r:id="rId61" name="ChangeMember2_1">
+        <control shapeId="12341" r:id="rId62" name="ChangeMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>63</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:colOff>693420</xdr:colOff>
                 <xdr:row>64</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12327,18 +12331,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12342" r:id="rId62" name="UpMember2_1">
+        <control shapeId="12342" r:id="rId63" name="UpMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>63</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:colOff>693420</xdr:colOff>
                 <xdr:row>64</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12349,18 +12353,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12343" r:id="rId63" name="DownMember2_1">
+        <control shapeId="12343" r:id="rId64" name="DownMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>63</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:colOff>693420</xdr:colOff>
                 <xdr:row>64</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -12371,7 +12375,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12344" r:id="rId64" name="AddedMember2_2">
+        <control shapeId="12344" r:id="rId65" name="AddedMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12382,7 +12386,7 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>68</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12393,7 +12397,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12345" r:id="rId65" name="ChangeMember2_2">
+        <control shapeId="12345" r:id="rId66" name="ChangeMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12404,7 +12408,7 @@
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>68</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12415,7 +12419,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12346" r:id="rId66" name="UpMember2_2">
+        <control shapeId="12346" r:id="rId67" name="UpMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12426,7 +12430,7 @@
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>68</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12437,7 +12441,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12347" r:id="rId67" name="DownMember2_2">
+        <control shapeId="12347" r:id="rId68" name="DownMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12459,18 +12463,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12348" r:id="rId68" name="AddedMember2_3">
+        <control shapeId="12348" r:id="rId69" name="AddedMember2_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>69</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12481,18 +12485,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12349" r:id="rId69" name="ChangeMember2_3">
+        <control shapeId="12349" r:id="rId70" name="ChangeMember2_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>69</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12503,18 +12507,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12350" r:id="rId70" name="UpMember2_3">
+        <control shapeId="12350" r:id="rId71" name="UpMember2_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>69</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>71</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12525,14 +12529,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12351" r:id="rId71" name="DownMember2_3">
+        <control shapeId="12351" r:id="rId72" name="DownMember2_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>15</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>69</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
@@ -12547,20 +12551,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12352" r:id="rId72" name="AddedMember2_4">
+        <control shapeId="12352" r:id="rId73" name="AddedMember2_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>72</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>74</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12569,20 +12573,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12353" r:id="rId73" name="ChangeMember2_4">
+        <control shapeId="12353" r:id="rId74" name="ChangeMember2_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>72</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>74</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12591,20 +12595,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12354" r:id="rId74" name="UpMember2_4">
+        <control shapeId="12354" r:id="rId75" name="UpMember2_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>72</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>74</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12613,20 +12617,20 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12355" r:id="rId75" name="DownMember2_4">
+        <control shapeId="12355" r:id="rId76" name="DownMember2_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>15</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>72</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>74</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12635,7 +12639,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12356" r:id="rId76" name="AddedMember2_5">
+        <control shapeId="12356" r:id="rId77" name="AddedMember2_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12646,9 +12650,9 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>77</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12657,7 +12661,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12357" r:id="rId77" name="ChangeMember2_5">
+        <control shapeId="12357" r:id="rId78" name="ChangeMember2_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12668,9 +12672,9 @@
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>77</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12679,7 +12683,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12358" r:id="rId78" name="UpMember2_5">
+        <control shapeId="12358" r:id="rId79" name="UpMember2_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12690,9 +12694,9 @@
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>77</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12701,7 +12705,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12359" r:id="rId79" name="DownMember2_5">
+        <control shapeId="12359" r:id="rId80" name="DownMember2_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12714,7 +12718,7 @@
                 <xdr:col>16</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>77</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12723,7 +12727,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12360" r:id="rId80" name="AddedMember2_6">
+        <control shapeId="12360" r:id="rId81" name="AddedMember2_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12734,9 +12738,9 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>80</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12745,7 +12749,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12361" r:id="rId81" name="ChangeMember2_6">
+        <control shapeId="12361" r:id="rId82" name="ChangeMember2_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12756,9 +12760,9 @@
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>80</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12767,7 +12771,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12362" r:id="rId82" name="UpMember2_6">
+        <control shapeId="12362" r:id="rId83" name="UpMember2_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12778,9 +12782,9 @@
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>80</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12789,7 +12793,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12363" r:id="rId83" name="DownMember2_6">
+        <control shapeId="12363" r:id="rId84" name="DownMember2_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12802,7 +12806,7 @@
                 <xdr:col>16</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>80</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -12811,7 +12815,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12364" r:id="rId84" name="AddedMember2_7">
+        <control shapeId="12364" r:id="rId85" name="AddedMember2_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12822,7 +12826,7 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>83</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12833,7 +12837,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12365" r:id="rId85" name="ChangeMember2_7">
+        <control shapeId="12365" r:id="rId86" name="ChangeMember2_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12844,7 +12848,7 @@
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>83</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12855,7 +12859,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12366" r:id="rId86" name="UpMember2_7">
+        <control shapeId="12366" r:id="rId87" name="UpMember2_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12866,7 +12870,7 @@
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>83</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12877,7 +12881,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12367" r:id="rId87" name="DownMember2_7">
+        <control shapeId="12367" r:id="rId88" name="DownMember2_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12899,18 +12903,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12368" r:id="rId88" name="AddedMember1_1">
+        <control shapeId="12368" r:id="rId89" name="AddedMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12921,18 +12925,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12369" r:id="rId89" name="ChangeMember1_1">
+        <control shapeId="12369" r:id="rId90" name="ChangeMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12943,18 +12947,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12370" r:id="rId90" name="UpMember1_1">
+        <control shapeId="12370" r:id="rId91" name="UpMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>41</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -12965,14 +12969,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12371" r:id="rId91" name="DownMember1_1">
+        <control shapeId="12371" r:id="rId92" name="DownMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>15</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
@@ -12987,7 +12991,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12372" r:id="rId92" name="AddedMember1_2">
+        <control shapeId="12372" r:id="rId93" name="AddedMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -12998,9 +13002,9 @@
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>44</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -13009,7 +13013,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12373" r:id="rId93" name="ChangeMember1_2">
+        <control shapeId="12373" r:id="rId94" name="ChangeMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -13020,9 +13024,9 @@
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>44</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -13031,7 +13035,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12374" r:id="rId94" name="UpMember1_2">
+        <control shapeId="12374" r:id="rId95" name="UpMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -13042,9 +13046,9 @@
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>44</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -13053,7 +13057,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12375" r:id="rId95" name="DownMember1_2">
+        <control shapeId="12375" r:id="rId96" name="DownMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -13066,7 +13070,7 @@
                 <xdr:col>16</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>44</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -13086,18 +13090,18 @@
       <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:J2"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="9" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="9" width="1.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="23" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
         <v>41</v>
       </c>
@@ -13162,7 +13166,7 @@
       <c r="CF1" s="27"/>
       <c r="CG1" s="27"/>
     </row>
-    <row r="2" spans="1:85" s="26" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" s="26" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="str">
         <f>SOP_Filter_Name&amp;" ("&amp;SOP_Filter_Criteria_Count&amp;" criteria):"&amp;"
 "&amp;IFERROR(INDEX(SOP_Filter,1),"")&amp;"
@@ -13237,7 +13241,7 @@
       <c r="CF2" s="27"/>
       <c r="CG2" s="27"/>
     </row>
-    <row r="3" spans="1:85" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="str">
         <f>SOP_Heading10</f>
         <v xml:space="preserve"> </v>
@@ -13301,7 +13305,7 @@
       <c r="AC3" s="29"/>
       <c r="AD3" s="29"/>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.3">
       <c r="J4" s="34" t="s">
         <v>22</v>
       </c>
@@ -13362,18 +13366,18 @@
       <pane xSplit="10" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="9" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="9" width="1.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="23" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
         <v>41</v>
       </c>
@@ -13438,7 +13442,7 @@
       <c r="CF1" s="27"/>
       <c r="CG1" s="27"/>
     </row>
-    <row r="2" spans="1:85" s="26" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" s="26" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="str">
         <f>SOP_Filter_Name&amp;" ("&amp;SOP_Filter_Criteria_Count&amp;" criteria):"&amp;"
 "&amp;IFERROR(INDEX(SOP_Filter,1),"")&amp;"
@@ -13513,7 +13517,7 @@
       <c r="CF2" s="27"/>
       <c r="CG2" s="27"/>
     </row>
-    <row r="3" spans="1:85" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="str">
         <f>SOP_Heading10</f>
         <v xml:space="preserve"> </v>
@@ -13577,7 +13581,7 @@
       <c r="AC3" s="29"/>
       <c r="AD3" s="29"/>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.3">
       <c r="J4" s="34" t="s">
         <v>22</v>
       </c>
@@ -13594,16 +13598,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-  <picture r:id="rId5"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+  <picture r:id="rId6"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId6" name="FPMExcelClientSheetOptionstb1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="5127" r:id="rId7" name="TextBox2">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId8">
+            <anchor>
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>53340</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5127" r:id="rId7" name="TextBox2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5121" r:id="rId9" name="FPMExcelClientSheetOptionstb1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -13622,150 +13652,9 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId6" name="FPMExcelClientSheetOptionstb1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5127" r:id="rId8" name="TextBox2">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId9">
-            <anchor>
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5127" r:id="rId8" name="TextBox2"/>
+        <control shapeId="5121" r:id="rId9" name="FPMExcelClientSheetOptionstb1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<config xmlns="http://com.sap.sop/sopconfig">
-  <ReportType xmlns="">SOP</ReportType>
-  <template xmlns=""/>
-  <favorite xmlns=""/>
-  <bookSettings xmlns="">
-    <scenarios>
-      <value>__BASELINE</value>
-    </scenarios>
-    <simulations>
-      <value>__PLAN</value>
-    </simulations>
-    <planningUnits>
-      <planningVersion>__BASELINE</planningVersion>
-      <planningScenario>__PLAN</planningScenario>
-    </planningUnits>
-  </bookSettings>
-  <report_ xmlns="">
-    <settings>
-      <flexibleTime>
-        <time>
-          <flexVersion>1</flexVersion>
-          <dimension>PERIODID0</dimension>
-          <rolling>1</rolling>
-          <mode>0</mode>
-          <totalName/>
-          <realTime>true</realTime>
-          <fromAbsolute/>
-          <toAbsolute/>
-          <fromRelative>-30</fromRelative>
-          <toRelative>29</toRelative>
-          <fromTimeAbsolute>0001-01-01T00:00:00</fromTimeAbsolute>
-          <toTimeAbsolute>0001-01-01T23:59:00</toTimeAbsolute>
-          <fromTimeRelativeInDays>0</fromTimeRelativeInDays>
-          <toTimeRelativeInDays>29</toTimeRelativeInDays>
-        </time>
-        <time>
-          <flexVersion>1</flexVersion>
-          <dimension>PERIODID4</dimension>
-          <rolling>1</rolling>
-          <mode>0</mode>
-          <totalName/>
-          <realTime>false</realTime>
-          <fromAbsolute/>
-          <toAbsolute/>
-          <fromRelative>0</fromRelative>
-          <toRelative>9</toRelative>
-          <fromTimeAbsolute>0001-01-01T00:00:00</fromTimeAbsolute>
-          <toTimeAbsolute>0001-01-01T00:00:00</toTimeAbsolute>
-          <fromTimeRelativeInDays>-30</fromTimeRelativeInDays>
-          <toTimeRelativeInDays>29</toTimeRelativeInDays>
-        </time>
-        <time>
-          <flexVersion>1</flexVersion>
-          <dimension>PERIODID3</dimension>
-          <rolling>1</rolling>
-          <mode>0</mode>
-          <totalName/>
-          <realTime>false</realTime>
-          <fromAbsolute/>
-          <toAbsolute/>
-          <fromRelative>-1</fromRelative>
-          <toRelative>3</toRelative>
-          <fromTimeAbsolute>0001-01-01T00:00:00</fromTimeAbsolute>
-          <toTimeAbsolute>0001-01-01T00:00:00</toTimeAbsolute>
-          <fromTimeRelativeInDays>-30</fromTimeRelativeInDays>
-          <toTimeRelativeInDays>29</toTimeRelativeInDays>
-        </time>
-      </flexibleTime>
-      <planningLevels>
-        <value>CUSTID</value>
-        <value>LOCID</value>
-        <value>PRDID</value>
-      </planningLevels>
-      <keyFigures>
-        <value>ACTUALSPRICE</value>
-      </keyFigures>
-      <conversions>
-        <conversion>
-          <dimension>CURRTOID</dimension>
-          <member>EUR</member>
-        </conversion>
-        <conversion>
-          <dimension>UOMTOID</dimension>
-          <member>KG</member>
-        </conversion>
-      </conversions>
-      <rowAxis>
-        <value>CUSTID</value>
-        <value>LOCID</value>
-        <value>PRDID</value>
-        <value>KEY_FIGURES</value>
-      </rowAxis>
-      <columnAxis>
-        <value>PERIODID</value>
-      </columnAxis>
-      <alerts/>
-      <dimsDispOptnId/>
-      <dimsDispOptnBoth/>
-      <dimsTmpltFltrMandatory/>
-      <dimsTmpltFltrOptional/>
-      <alertsOnly>false</alertsOnly>
-    </settings>
-  </report_>
-</config>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66EFAFC6-739D-4AB2-BBC3-1B5A47B064C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://com.sap.sop/sopconfig"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VBA_Template_2105_andOnwards/TemplateWithoutVBA.xlsx
+++ b/VBA_Template_2105_andOnwards/TemplateWithoutVBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I529952\Desktop\charts\New Chart files\2105\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E59F62FC-453E-4ED3-833F-4B7CED373CE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B6023E-BAC8-4035-8194-60ADB5295270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="374" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,6 @@
     <definedName name="SOP_Template_Name">" "</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5914,7 +5913,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>1645920</xdr:colOff>
           <xdr:row>108</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8861,7 +8860,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>83820</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9234,7 +9233,7 @@
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9438,7 +9437,7 @@
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="36" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="46" t="s">
@@ -13126,7 +13125,7 @@
       <c r="Q1" s="96" t="str">
         <f>"User: "&amp;_xll.IBPUser()&amp;"   |    Planning Area: "&amp;IFERROR(SOP_Planning_Area,"Offline")&amp;"
 "&amp;"Template: "&amp;IFERROR(SOP_Template_Name,"none")</f>
-        <v xml:space="preserve">User: Patrick Weber   |    Planning Area: SAP4PW
+        <v xml:space="preserve">User: #Error, no current connection.   |    Planning Area: SAP4PW
 Template:  </v>
       </c>
       <c r="R1" s="96"/>
@@ -13402,7 +13401,7 @@
       <c r="Q1" s="96" t="str">
         <f>"User: "&amp;_xll.IBPUser()&amp;"   |    Planning Area: "&amp;IFERROR(SOP_Planning_Area,"Offline")&amp;"
 "&amp;"Template: "&amp;IFERROR(SOP_Template_Name,"none")</f>
-        <v xml:space="preserve">User: Patrick Weber   |    Planning Area: SAP4PW
+        <v xml:space="preserve">User: #Error, no current connection.   |    Planning Area: SAP4PW
 Template:  </v>
       </c>
       <c r="R1" s="96"/>
